--- a/demo/demo_populated_workbook.xlsx
+++ b/demo/demo_populated_workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kurmasz/Documents/Code/AltGradebook/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C74680-A25D-B340-B121-D173DBB841A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7651FEFE-19D1-F94A-9256-20AD54E4BFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27620" yWindow="1700" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -539,6 +539,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -884,9 +890,9 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -906,7 +912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -926,7 +932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -946,7 +952,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -966,7 +972,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -986,7 +992,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1006,7 +1012,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1166,7 +1172,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1206,7 +1212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1243,7 +1249,7 @@
       <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="0" hidden="1"/>
@@ -1252,7 +1258,7 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="str">
         <f>info!A1</f>
         <v>Last Name</v>
@@ -1299,7 +1305,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f>info!A2</f>
         <v>lname</v>
@@ -1346,7 +1352,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
         <f>info!A3</f>
         <v>Anderson</v>
@@ -1390,7 +1396,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f>info!A4</f>
         <v>Brown</v>
@@ -1434,7 +1440,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f>info!A5</f>
         <v>Davis</v>
@@ -1478,7 +1484,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>info!A6</f>
         <v>Evans</v>
@@ -1519,7 +1525,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f>info!A7</f>
         <v>Flores</v>
@@ -1560,7 +1566,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f>info!A8</f>
         <v>Garcia</v>
@@ -1604,7 +1610,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>info!A9</f>
         <v>Hernandez</v>
@@ -1645,7 +1651,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>info!A10</f>
         <v>Jackson</v>
@@ -1686,7 +1692,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>info!A11</f>
         <v>Kim</v>
@@ -1727,7 +1733,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f>info!A12</f>
         <v>Lee</v>
@@ -1768,7 +1774,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f>info!A13</f>
         <v>Martinez</v>
@@ -1809,7 +1815,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f>info!A14</f>
         <v>Nelson</v>
@@ -1850,7 +1856,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
         <f>info!A15</f>
         <v>Ortiz</v>
@@ -1891,7 +1897,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f>info!A16</f>
         <v>Patel</v>
@@ -1932,7 +1938,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>info!A17</f>
         <v>Quinn</v>
@@ -1984,14 +1990,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="0" hidden="1"/>
@@ -2000,7 +2006,7 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="str">
         <f>info!A1</f>
         <v>Last Name</v>
@@ -2044,7 +2050,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f>info!A2</f>
         <v>lname</v>
@@ -2088,7 +2094,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
         <f>info!A3</f>
         <v>Anderson</v>
@@ -2123,7 +2129,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f>info!A4</f>
         <v>Brown</v>
@@ -2167,7 +2173,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f>info!A5</f>
         <v>Davis</v>
@@ -2208,7 +2214,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>info!A6</f>
         <v>Evans</v>
@@ -2243,7 +2249,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f>info!A7</f>
         <v>Flores</v>
@@ -2287,7 +2293,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f>info!A8</f>
         <v>Garcia</v>
@@ -2328,7 +2334,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>info!A9</f>
         <v>Hernandez</v>
@@ -2363,7 +2369,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>info!A10</f>
         <v>Jackson</v>
@@ -2407,7 +2413,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>info!A11</f>
         <v>Kim</v>
@@ -2451,7 +2457,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f>info!A12</f>
         <v>Lee</v>
@@ -2495,7 +2501,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f>info!A13</f>
         <v>Martinez</v>
@@ -2536,7 +2542,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f>info!A14</f>
         <v>Nelson</v>
@@ -2577,7 +2583,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
         <f>info!A15</f>
         <v>Ortiz</v>
@@ -2612,7 +2618,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f>info!A16</f>
         <v>Patel</v>
@@ -2650,7 +2656,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>info!A17</f>
         <v>Quinn</v>
@@ -2709,14 +2715,14 @@
       <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="0" hidden="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="str">
         <f>info!A1</f>
         <v>Last Name</v>
@@ -2745,7 +2751,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f>info!A2</f>
         <v>lname</v>
@@ -2774,7 +2780,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
         <f>info!A3</f>
         <v>Anderson</v>
@@ -2803,7 +2809,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f>info!A4</f>
         <v>Brown</v>
@@ -2832,7 +2838,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f>info!A5</f>
         <v>Davis</v>
@@ -2861,7 +2867,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>info!A6</f>
         <v>Evans</v>
@@ -2890,7 +2896,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f>info!A7</f>
         <v>Flores</v>
@@ -2919,7 +2925,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f>info!A8</f>
         <v>Garcia</v>
@@ -2948,7 +2954,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>info!A9</f>
         <v>Hernandez</v>
@@ -2977,7 +2983,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>info!A10</f>
         <v>Jackson</v>
@@ -3006,7 +3012,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>info!A11</f>
         <v>Kim</v>
@@ -3035,7 +3041,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f>info!A12</f>
         <v>Lee</v>
@@ -3064,7 +3070,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f>info!A13</f>
         <v>Martinez</v>
@@ -3093,7 +3099,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f>info!A14</f>
         <v>Nelson</v>
@@ -3122,7 +3128,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
         <f>info!A15</f>
         <v>Ortiz</v>
@@ -3151,7 +3157,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f>info!A16</f>
         <v>Patel</v>
@@ -3180,7 +3186,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>info!A17</f>
         <v>Quinn</v>
@@ -3220,14 +3226,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="0" hidden="1"/>
@@ -3236,7 +3242,7 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A1" t="str">
         <f>info!A1</f>
         <v>Last Name</v>
@@ -3262,7 +3268,7 @@
         <v>Major</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f>info!A2</f>
         <v>lname</v>
@@ -3375,7 +3381,7 @@
         <v>45043</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
         <f>info!A3</f>
         <v>Anderson</v>
@@ -3400,14 +3406,14 @@
         <f>info!F3</f>
         <v>CS</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>59</v>
+      <c r="G3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>59</v>
@@ -3488,7 +3494,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="str">
         <f>info!A4</f>
         <v>Brown</v>
@@ -3513,14 +3519,14 @@
         <f>info!F4</f>
         <v>IS</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>59</v>
+      <c r="G4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>59</v>
@@ -3601,7 +3607,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="str">
         <f>info!A5</f>
         <v>Davis</v>
@@ -3626,14 +3632,14 @@
         <f>info!F5</f>
         <v>CS</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>59</v>
+      <c r="G5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>59</v>
@@ -3714,7 +3720,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="str">
         <f>info!A6</f>
         <v>Evans</v>
@@ -3739,14 +3745,14 @@
         <f>info!F6</f>
         <v>CS</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>59</v>
+      <c r="G6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>59</v>
@@ -3827,7 +3833,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="str">
         <f>info!A7</f>
         <v>Flores</v>
@@ -3852,14 +3858,14 @@
         <f>info!F7</f>
         <v>CS</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>59</v>
+      <c r="G7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>59</v>
@@ -3940,7 +3946,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="str">
         <f>info!A8</f>
         <v>Garcia</v>
@@ -3965,14 +3971,14 @@
         <f>info!F8</f>
         <v>CYB</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>59</v>
+      <c r="G8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>59</v>
@@ -4053,7 +4059,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="str">
         <f>info!A9</f>
         <v>Hernandez</v>
@@ -4078,14 +4084,14 @@
         <f>info!F9</f>
         <v>IT</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>59</v>
+      <c r="G9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>59</v>
@@ -4166,7 +4172,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="str">
         <f>info!A10</f>
         <v>Jackson</v>
@@ -4191,14 +4197,14 @@
         <f>info!F10</f>
         <v>CS</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>59</v>
+      <c r="G10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>59</v>
@@ -4279,7 +4285,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="str">
         <f>info!A11</f>
         <v>Kim</v>
@@ -4304,14 +4310,14 @@
         <f>info!F11</f>
         <v>CS</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>59</v>
+      <c r="G11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>59</v>
@@ -4392,7 +4398,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="str">
         <f>info!A12</f>
         <v>Lee</v>
@@ -4417,14 +4423,14 @@
         <f>info!F12</f>
         <v>IT</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>59</v>
+      <c r="G12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>59</v>
@@ -4505,7 +4511,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="str">
         <f>info!A13</f>
         <v>Martinez</v>
@@ -4530,14 +4536,14 @@
         <f>info!F13</f>
         <v>IS</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>59</v>
+      <c r="G13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>59</v>
@@ -4618,7 +4624,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="str">
         <f>info!A14</f>
         <v>Nelson</v>
@@ -4643,14 +4649,14 @@
         <f>info!F14</f>
         <v>IS</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>59</v>
+      <c r="G14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>59</v>
@@ -4731,7 +4737,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="str">
         <f>info!A15</f>
         <v>Ortiz</v>
@@ -4756,14 +4762,14 @@
         <f>info!F15</f>
         <v>CS</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>59</v>
+      <c r="G15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>59</v>
@@ -4844,7 +4850,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="str">
         <f>info!A16</f>
         <v>Patel</v>
@@ -4869,14 +4875,14 @@
         <f>info!F16</f>
         <v>CS</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>59</v>
+      <c r="G16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>59</v>
@@ -4957,7 +4963,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="str">
         <f>info!A17</f>
         <v>Quinn</v>
@@ -4982,14 +4988,14 @@
         <f>info!F17</f>
         <v>CYB</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>59</v>
+      <c r="G17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>59</v>
